--- a/data processing/goFlux_reprocessing/results/CO2_best_all.xlsx
+++ b/data processing/goFlux_reprocessing/results/CO2_best_all.xlsx
@@ -1448,7 +1448,7 @@
         <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.578890542707948</v>
+        <v>-0.283480188239537</v>
       </c>
       <c r="C5" t="n">
         <v>364.107056689531</v>
@@ -1469,10 +1469,10 @@
         <v>739.38900337117</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00152724462047174</v>
+        <v>0.00074788551978363</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.263822693203375</v>
+        <v>-0.263822852816677</v>
       </c>
       <c r="K5" t="n">
         <v>0.998269885766586</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.65922722638662</v>
+        <v>-0.322820713833957</v>
       </c>
       <c r="N5" t="n">
         <v>365.954503352097</v>
@@ -1502,10 +1502,10 @@
         <v>899.100064927906</v>
       </c>
       <c r="T5" t="n">
-        <v>0.00917285251103594</v>
+        <v>0.00449190881156657</v>
       </c>
       <c r="U5" t="n">
-        <v>-1.3914553501248</v>
+        <v>-1.3914561919583</v>
       </c>
       <c r="V5" t="n">
         <v>0.996751357702747</v>
@@ -1520,13 +1520,13 @@
         <v>277.555</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.00132855827863073</v>
+        <v>0.000650589227372196</v>
       </c>
       <c r="AA5" t="n">
         <v>0.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.64741226550211</v>
+        <v>0.806730641941524</v>
       </c>
       <c r="AC5" t="n">
         <v>250</v>
@@ -1547,7 +1547,7 @@
         <v>45</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.578890542707948</v>
+        <v>-0.283480188239537</v>
       </c>
       <c r="AJ5" t="s">
         <v>51</v>
@@ -1571,7 +1571,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0013</v>
+        <v>0.00065</v>
       </c>
     </row>
     <row r="6">
@@ -1579,7 +1579,7 @@
         <v>53</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.44532372524389</v>
+        <v>-0.707768760191876</v>
       </c>
       <c r="C6" t="n">
         <v>446.571638299557</v>
@@ -1600,10 +1600,10 @@
         <v>691.544971966273</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00387729311498974</v>
+        <v>0.00189869430401913</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.268264683355659</v>
+        <v>-0.268264779517027</v>
       </c>
       <c r="K6" t="n">
         <v>0.998713457661317</v>
@@ -1612,7 +1612,7 @@
         <v>1.98883532059287e-259</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.77043232004861</v>
+        <v>-0.866973029141264</v>
       </c>
       <c r="N6" t="n">
         <v>451.945035269018</v>
@@ -1633,10 +1633,10 @@
         <v>862.474862167953</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0288390747672172</v>
+        <v>0.0141223749068665</v>
       </c>
       <c r="U6" t="n">
-        <v>-1.62892839453051</v>
+        <v>-1.62892897843139</v>
       </c>
       <c r="V6" t="n">
         <v>0.996719612677832</v>
@@ -1651,13 +1651,13 @@
         <v>293.745</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00183458998645006</v>
+        <v>0.00089839076013997</v>
       </c>
       <c r="AA6" t="n">
         <v>0.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.64195803787281</v>
+        <v>0.804059730325273</v>
       </c>
       <c r="AC6" t="n">
         <v>180</v>
@@ -1678,7 +1678,7 @@
         <v>45</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1.44532372524389</v>
+        <v>-0.707768760191876</v>
       </c>
       <c r="AJ6" t="s">
         <v>51</v>
@@ -1702,7 +1702,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0018</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="7">
@@ -1972,7 +1972,7 @@
         <v>56</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.07735597641805</v>
+        <v>-0.527576549389335</v>
       </c>
       <c r="C9" t="n">
         <v>383.195451920007</v>
@@ -1993,10 +1993,10 @@
         <v>1136.31389110451</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00611316179017802</v>
+        <v>0.00299358997671302</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.567422646180774</v>
+        <v>-0.567422865966669</v>
       </c>
       <c r="K9" t="n">
         <v>0.993156805527823</v>
@@ -2005,7 +2005,7 @@
         <v>9.48729968710112e-233</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.37000793079041</v>
+        <v>-0.67088694227651</v>
       </c>
       <c r="N9" t="n">
         <v>389.178282128386</v>
@@ -2026,10 +2026,10 @@
         <v>932.561221351942</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0181553167915206</v>
+        <v>0.00889058334076303</v>
       </c>
       <c r="U9" t="n">
-        <v>-1.32519793378467</v>
+        <v>-1.32519844708778</v>
       </c>
       <c r="V9" t="n">
         <v>0.997372826389476</v>
@@ -2044,13 +2044,13 @@
         <v>254.221</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00153875976555885</v>
+        <v>0.000753523983921975</v>
       </c>
       <c r="AA9" t="n">
         <v>0.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.64647294914797</v>
+        <v>0.806270662796514</v>
       </c>
       <c r="AC9" t="n">
         <v>215</v>
@@ -2071,7 +2071,7 @@
         <v>45</v>
       </c>
       <c r="AI9" t="n">
-        <v>-1.37000793079041</v>
+        <v>-0.67088694227651</v>
       </c>
       <c r="AJ9" t="s">
         <v>46</v>
@@ -2095,7 +2095,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0015</v>
+        <v>0.00075</v>
       </c>
     </row>
     <row r="10">
@@ -2103,7 +2103,7 @@
         <v>57</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.865555236263556</v>
+        <v>-0.423858645470217</v>
       </c>
       <c r="C10" t="n">
         <v>388.740113479359</v>
@@ -2124,10 +2124,10 @@
         <v>815.974693326938</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00318403550870003</v>
+        <v>0.00155920894108053</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.367860464046747</v>
+        <v>-0.36786059639076</v>
       </c>
       <c r="K10" t="n">
         <v>0.997193179176985</v>
@@ -2136,7 +2136,7 @@
         <v>2.61594103238256e-266</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.00859515234593</v>
+        <v>-0.493904672042212</v>
       </c>
       <c r="N10" t="n">
         <v>391.388214996008</v>
@@ -2157,10 +2157,10 @@
         <v>1012.4230181394</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0228128250026771</v>
+        <v>0.0111713454885439</v>
       </c>
       <c r="U10" t="n">
-        <v>-2.26184162690213</v>
+        <v>-2.26184244063784</v>
       </c>
       <c r="V10" t="n">
         <v>0.992897400268458</v>
@@ -2175,13 +2175,13 @@
         <v>277.161</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0015852607780574</v>
+        <v>0.000776295328077564</v>
       </c>
       <c r="AA10" t="n">
         <v>0.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.64074490528941</v>
+        <v>0.803465664560279</v>
       </c>
       <c r="AC10" t="n">
         <v>209</v>
@@ -2202,7 +2202,7 @@
         <v>45</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.865555236263556</v>
+        <v>-0.423858645470217</v>
       </c>
       <c r="AJ10" t="s">
         <v>51</v>
@@ -2226,7 +2226,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0016</v>
+        <v>0.00078</v>
       </c>
     </row>
     <row r="11">
@@ -2234,7 +2234,7 @@
         <v>58</v>
       </c>
       <c r="B11" t="n">
-        <v>0.74509197444384</v>
+        <v>0.364868308580519</v>
       </c>
       <c r="C11" t="n">
         <v>255.469420118019</v>
@@ -2255,10 +2255,10 @@
         <v>763.743358325277</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00470906147129206</v>
+        <v>0.00230600715720332</v>
       </c>
       <c r="J11" t="n">
-        <v>0.632010762806437</v>
+        <v>0.632010811290952</v>
       </c>
       <c r="K11" t="n">
         <v>0.992900540593155</v>
@@ -2267,7 +2267,7 @@
         <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000209002651912593</v>
       </c>
       <c r="M11" t="n">
-        <v>0.756916634396914</v>
+        <v>0.370658793278517</v>
       </c>
       <c r="N11" t="n">
         <v>255.254069577292</v>
@@ -2288,10 +2288,10 @@
         <v>766.300180216227</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0189904887472661</v>
+        <v>0.00929956069526073</v>
       </c>
       <c r="U11" t="n">
-        <v>2.50892738833743</v>
+        <v>2.50892758080959</v>
       </c>
       <c r="V11" t="n">
         <v>0.992882381548797</v>
@@ -2306,13 +2306,13 @@
         <v>335.969</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.00182296356123948</v>
+        <v>0.00089269735013567</v>
       </c>
       <c r="AA11" t="n">
         <v>0.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.63155238730934</v>
+        <v>0.798964128371424</v>
       </c>
       <c r="AC11" t="n">
         <v>180</v>
@@ -2333,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.756916634396914</v>
+        <v>0.370658793278517</v>
       </c>
       <c r="AJ11" t="s">
         <v>46</v>
@@ -2357,7 +2357,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.0018</v>
+        <v>0.00089</v>
       </c>
     </row>
     <row r="12">
@@ -2627,7 +2627,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.518612268606545</v>
+        <v>-0.25396217882607</v>
       </c>
       <c r="C14" t="n">
         <v>401.22778840176</v>
@@ -2648,10 +2648,10 @@
         <v>719.727757946015</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00282719127213582</v>
+        <v>0.00138446289493692</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.545145466714888</v>
+        <v>-0.545145305232671</v>
       </c>
       <c r="K14" t="n">
         <v>0.994061905107379</v>
@@ -2660,7 +2660,7 @@
         <v>7.94810184353364e-225</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.564053677606575</v>
+        <v>-0.276214639743707</v>
       </c>
       <c r="N14" t="n">
         <v>402.113829622541</v>
@@ -2681,10 +2681,10 @@
         <v>735.476276766027</v>
       </c>
       <c r="T14" t="n">
-        <v>0.012435201355052</v>
+        <v>0.00608946237094619</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.20461311551372</v>
+        <v>-2.20461246246631</v>
       </c>
       <c r="V14" t="n">
         <v>0.993646470084973</v>
@@ -2699,13 +2699,13 @@
         <v>339.96</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.00162857200532757</v>
+        <v>0.000797504648240234</v>
       </c>
       <c r="AA14" t="n">
         <v>0.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.63671486535421</v>
+        <v>0.801492171481435</v>
       </c>
       <c r="AC14" t="n">
         <v>202</v>
@@ -2726,7 +2726,7 @@
         <v>45</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.518612268606545</v>
+        <v>-0.25396217882607</v>
       </c>
       <c r="AJ14" t="s">
         <v>51</v>
@@ -2750,7 +2750,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0016</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="15">
@@ -2889,7 +2889,7 @@
         <v>64</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.684369125934623</v>
+        <v>-0.33513259300757</v>
       </c>
       <c r="C16" t="n">
         <v>374.303827518841</v>
@@ -2910,10 +2910,10 @@
         <v>1094.11086673799</v>
       </c>
       <c r="I16" t="n">
-        <v>0.00218661103676692</v>
+        <v>0.00107077477107496</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.319507551393515</v>
+        <v>-0.31950779882838</v>
       </c>
       <c r="K16" t="n">
         <v>0.997210641650461</v>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.81237028872179</v>
+        <v>-0.397814207310763</v>
       </c>
       <c r="N16" t="n">
         <v>377.542839284047</v>
@@ -2943,10 +2943,10 @@
         <v>1286.83835027965</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0140895838013098</v>
+        <v>0.00689961342722206</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.73437950610907</v>
+        <v>-1.73438084925716</v>
       </c>
       <c r="V16" t="n">
         <v>0.994427943333383</v>
@@ -2961,13 +2961,13 @@
         <v>263.572</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.00119081189428545</v>
+        <v>0.000583135420334937</v>
       </c>
       <c r="AA16" t="n">
         <v>0.2</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.63141229517107</v>
+        <v>0.798895525858864</v>
       </c>
       <c r="AC16" t="n">
         <v>275</v>
@@ -2988,7 +2988,7 @@
         <v>45</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.684369125934623</v>
+        <v>-0.33513259300757</v>
       </c>
       <c r="AJ16" t="s">
         <v>51</v>
@@ -3012,7 +3012,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.0012</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="17">
@@ -3020,7 +3020,7 @@
         <v>65</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.668695013221734</v>
+        <v>-0.720280841077985</v>
       </c>
       <c r="C17" t="n">
         <v>411.630157835831</v>
@@ -3041,10 +3041,10 @@
         <v>522.294779168519</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00187333984051489</v>
+        <v>0.00201785783352379</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.280148618349829</v>
+        <v>-0.280148758434811</v>
       </c>
       <c r="K17" t="n">
         <v>0.998456253866097</v>
@@ -3053,7 +3053,7 @@
         <v>1.04575474257694e-277</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.739901474684596</v>
+        <v>-0.7969804559077</v>
       </c>
       <c r="N17" t="n">
         <v>412.917337589849</v>
@@ -3074,10 +3074,10 @@
         <v>636.956575854896</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0107016018021684</v>
+        <v>0.0115271722517911</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.44635497675286</v>
+        <v>-1.44635569998545</v>
       </c>
       <c r="V17" t="n">
         <v>0.997275045341454</v>
@@ -3092,13 +3092,13 @@
         <v>332.541</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.00170545427225412</v>
+        <v>0.00183701988701972</v>
       </c>
       <c r="AA17" t="n">
         <v>0.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.67987245817031</v>
+        <v>1.80946458871443</v>
       </c>
       <c r="AC17" t="n">
         <v>198</v>
@@ -3119,7 +3119,7 @@
         <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.668695013221734</v>
+        <v>-0.720280841077985</v>
       </c>
       <c r="AJ17" t="s">
         <v>51</v>
@@ -3143,7 +3143,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.0017</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="18">
@@ -3151,7 +3151,7 @@
         <v>66</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.28480128586932</v>
+        <v>-1.38391603422526</v>
       </c>
       <c r="C18" t="n">
         <v>421.272730764563</v>
@@ -3172,10 +3172,10 @@
         <v>2444.99207968057</v>
       </c>
       <c r="I18" t="n">
-        <v>0.011568140214867</v>
+        <v>0.0124605545941316</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.900383611232128</v>
+        <v>-0.900383714472045</v>
       </c>
       <c r="K18" t="n">
         <v>0.974942998312819</v>
@@ -3184,7 +3184,7 @@
         <v>2.95940574296719e-255</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.21840932608757</v>
+        <v>-2.38954636068111</v>
       </c>
       <c r="N18" t="n">
         <v>447.314440684451</v>
@@ -3205,10 +3205,10 @@
         <v>1720.79748447856</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0221883867408094</v>
+        <v>0.0239000910435232</v>
       </c>
       <c r="U18" t="n">
-        <v>-1.0001935386713</v>
+        <v>-1.00019365335564</v>
       </c>
       <c r="V18" t="n">
         <v>0.997446765523847</v>
@@ -3223,13 +3223,13 @@
         <v>205.108</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.00105855360878455</v>
+        <v>0.00114021469965509</v>
       </c>
       <c r="AA18" t="n">
         <v>0.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.67780746992351</v>
+        <v>1.80724029895331</v>
       </c>
       <c r="AC18" t="n">
         <v>318</v>
@@ -3250,7 +3250,7 @@
         <v>45</v>
       </c>
       <c r="AI18" t="n">
-        <v>-2.21840932608757</v>
+        <v>-2.38954636068111</v>
       </c>
       <c r="AJ18" t="s">
         <v>46</v>
@@ -7867,7 +7867,7 @@
         <v>106</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.537417528975959</v>
+        <v>-0.578876082709024</v>
       </c>
       <c r="C54" t="n">
         <v>365.938409149199</v>
@@ -7888,10 +7888,10 @@
         <v>102.315796937429</v>
       </c>
       <c r="I54" t="n">
-        <v>0.0272127913326151</v>
+        <v>0.0293120898941866</v>
       </c>
       <c r="J54" t="n">
-        <v>-5.06362183318968</v>
+        <v>-5.06362082831473</v>
       </c>
       <c r="K54" t="n">
         <v>0.958129273632296</v>
@@ -7900,7 +7900,7 @@
         <v>0.00000000000116277752613223</v>
       </c>
       <c r="M54" t="n">
-        <v>-1.02737999475829</v>
+        <v>-1.10663622742738</v>
       </c>
       <c r="N54" t="n">
         <v>372.664550786564</v>
@@ -7921,10 +7921,10 @@
         <v>56.6437259957728</v>
       </c>
       <c r="T54" t="n">
-        <v>0.0437327164942448</v>
+        <v>0.0471064251192745</v>
       </c>
       <c r="U54" t="n">
-        <v>-4.25672260676378</v>
+        <v>-4.25672176201785</v>
       </c>
       <c r="V54" t="n">
         <v>0.997253200360017</v>
@@ -7939,13 +7939,13 @@
         <v>318.682</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.00196706697784983</v>
+        <v>0.00211881445090513</v>
       </c>
       <c r="AA54" t="n">
         <v>0.2</v>
       </c>
       <c r="AB54" t="n">
-        <v>1.67200693117235</v>
+        <v>1.80099228326936</v>
       </c>
       <c r="AC54" t="n">
         <v>18</v>
@@ -7966,7 +7966,7 @@
         <v>45</v>
       </c>
       <c r="AI54" t="n">
-        <v>-1.02737999475829</v>
+        <v>-1.10663622742738</v>
       </c>
       <c r="AJ54" t="s">
         <v>46</v>
@@ -7990,7 +7990,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.002</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="55">
@@ -7998,7 +7998,7 @@
         <v>107</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.05045360359779</v>
+        <v>-0.901752118265827</v>
       </c>
       <c r="C55" t="n">
         <v>462.824329239887</v>
@@ -8019,10 +8019,10 @@
         <v>139.965357939844</v>
       </c>
       <c r="I55" t="n">
-        <v>0.00833644891444809</v>
+        <v>0.00715634752349153</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.793604675722548</v>
+        <v>-0.793604736660226</v>
       </c>
       <c r="K55" t="n">
         <v>0.998051275336917</v>
@@ -8031,7 +8031,7 @@
         <v>0.00000000000000000000000000000000000000000196243769676426</v>
       </c>
       <c r="M55" t="n">
-        <v>-1.26672029459668</v>
+        <v>-1.08740424611864</v>
       </c>
       <c r="N55" t="n">
         <v>467.51283798182</v>
@@ -8052,10 +8052,10 @@
         <v>125.509248060643</v>
       </c>
       <c r="T55" t="n">
-        <v>0.0290592446864095</v>
+        <v>0.0249456400297379</v>
       </c>
       <c r="U55" t="n">
-        <v>-2.29405377101517</v>
+        <v>-2.29405394716623</v>
       </c>
       <c r="V55" t="n">
         <v>0.99885839650062</v>
@@ -8070,13 +8070,13 @@
         <v>314.939</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.00140160217562366</v>
+        <v>0.00120319234139022</v>
       </c>
       <c r="AA55" t="n">
         <v>0.2</v>
       </c>
       <c r="AB55" t="n">
-        <v>2.16547536133856</v>
+        <v>1.8589321674479</v>
       </c>
       <c r="AC55" t="n">
         <v>32</v>
@@ -8097,7 +8097,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="n">
-        <v>-1.26672029459668</v>
+        <v>-1.08740424611864</v>
       </c>
       <c r="AJ55" t="s">
         <v>46</v>
@@ -8121,7 +8121,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.0014</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="56">
@@ -8915,7 +8915,7 @@
         <v>114</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.69416969657185</v>
+        <v>-1.45434420649613</v>
       </c>
       <c r="C62" t="n">
         <v>361.094327686029</v>
@@ -8936,10 +8936,10 @@
         <v>133.1935992778</v>
       </c>
       <c r="I62" t="n">
-        <v>0.0827920742073469</v>
+        <v>0.071072082578351</v>
       </c>
       <c r="J62" t="n">
-        <v>-4.88688201511789</v>
+        <v>-4.88688181662173</v>
       </c>
       <c r="K62" t="n">
         <v>0.96089546315884</v>
@@ -8948,7 +8948,7 @@
         <v>0.000000000000672216779211244</v>
       </c>
       <c r="M62" t="n">
-        <v>-3.31209272952174</v>
+        <v>-2.8432351743187</v>
       </c>
       <c r="N62" t="n">
         <v>378.019193108446</v>
@@ -8969,10 +8969,10 @@
         <v>49.3280165102615</v>
       </c>
       <c r="T62" t="n">
-        <v>0.0471478723805451</v>
+        <v>0.0404736505433065</v>
       </c>
       <c r="U62" t="n">
-        <v>-1.4235070159812</v>
+        <v>-1.42350695816096</v>
       </c>
       <c r="V62" t="n">
         <v>0.999692651727862</v>
@@ -8987,13 +8987,13 @@
         <v>242.129</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.00255092343718342</v>
+        <v>0.002189816480362</v>
       </c>
       <c r="AA62" t="n">
         <v>0.2</v>
       </c>
       <c r="AB62" t="n">
-        <v>2.16828492160591</v>
+        <v>1.8613440083077</v>
       </c>
       <c r="AC62" t="n">
         <v>18</v>
@@ -9014,7 +9014,7 @@
         <v>45</v>
       </c>
       <c r="AI62" t="n">
-        <v>-3.31209272952174</v>
+        <v>-2.8432351743187</v>
       </c>
       <c r="AJ62" t="s">
         <v>46</v>
@@ -9038,7 +9038,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.0026</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="63">
@@ -10356,7 +10356,7 @@
         <v>125</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.745954122843652</v>
+        <v>-0.493006444272289</v>
       </c>
       <c r="C73" t="n">
         <v>371.273512948843</v>
@@ -10377,10 +10377,10 @@
         <v>549.866125775627</v>
       </c>
       <c r="I73" t="n">
-        <v>0.00351690498220077</v>
+        <v>0.00232434762493719</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.471463978078701</v>
+        <v>-0.471463943715397</v>
       </c>
       <c r="K73" t="n">
         <v>0.996058952081403</v>
@@ -10389,7 +10389,7 @@
         <v>5.93312927430903e-215</v>
       </c>
       <c r="M73" t="n">
-        <v>-0.811735154461173</v>
+        <v>-0.536481601128704</v>
       </c>
       <c r="N73" t="n">
         <v>372.076065568911</v>
@@ -10410,10 +10410,10 @@
         <v>648.766303420612</v>
       </c>
       <c r="T73" t="n">
-        <v>0.0197220822405722</v>
+        <v>0.0130344650329461</v>
       </c>
       <c r="U73" t="n">
-        <v>-2.42962031793037</v>
+        <v>-2.42962014084415</v>
       </c>
       <c r="V73" t="n">
         <v>0.993234522414057</v>
@@ -10428,13 +10428,13 @@
         <v>308.848</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.00245130557244266</v>
+        <v>0.00162008548124628</v>
       </c>
       <c r="AA73" t="n">
         <v>0.2</v>
       </c>
       <c r="AB73" t="n">
-        <v>2.18166195947397</v>
+        <v>1.44187607830919</v>
       </c>
       <c r="AC73" t="n">
         <v>179</v>
@@ -10455,7 +10455,7 @@
         <v>45</v>
       </c>
       <c r="AI73" t="n">
-        <v>-0.745954122843652</v>
+        <v>-0.493006444272289</v>
       </c>
       <c r="AJ73" t="s">
         <v>51</v>
@@ -10479,7 +10479,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.0025</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="74">
@@ -10749,7 +10749,7 @@
         <v>128</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.80093274765803</v>
+        <v>-1.48870520342418</v>
       </c>
       <c r="C76" t="n">
         <v>322.984494576991</v>
@@ -10770,10 +10770,10 @@
         <v>1675.14114155674</v>
       </c>
       <c r="I76" t="n">
-        <v>0.011957931987142</v>
+        <v>0.00988478513536255</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.663985482117105</v>
+        <v>-0.663985395673133</v>
       </c>
       <c r="K76" t="n">
         <v>0.988925265070172</v>
@@ -10782,7 +10782,7 @@
         <v>1.24104828763344e-249</v>
       </c>
       <c r="M76" t="n">
-        <v>-2.81027477653557</v>
+        <v>-2.32305769791835</v>
       </c>
       <c r="N76" t="n">
         <v>340.002352160937</v>
@@ -10803,10 +10803,10 @@
         <v>1219.03333350338</v>
       </c>
       <c r="T76" t="n">
-        <v>0.0274021921696439</v>
+        <v>0.0226514736934527</v>
       </c>
       <c r="U76" t="n">
-        <v>-0.975071633508538</v>
+        <v>-0.9750715065644</v>
       </c>
       <c r="V76" t="n">
         <v>0.998237588871825</v>
@@ -10821,13 +10821,13 @@
         <v>128.55</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.00172576093978911</v>
+        <v>0.00142656592494707</v>
       </c>
       <c r="AA76" t="n">
         <v>0.2</v>
       </c>
       <c r="AB76" t="n">
-        <v>2.18308758883322</v>
+        <v>1.80460589505804</v>
       </c>
       <c r="AC76" t="n">
         <v>255</v>
@@ -10848,7 +10848,7 @@
         <v>45</v>
       </c>
       <c r="AI76" t="n">
-        <v>-2.81027477653557</v>
+        <v>-2.32305769791835</v>
       </c>
       <c r="AJ76" t="s">
         <v>46</v>
@@ -10872,7 +10872,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.0017</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="77">
@@ -12190,7 +12190,7 @@
         <v>139</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.10958864822183</v>
+        <v>-0.986497632028184</v>
       </c>
       <c r="C87" t="n">
         <v>394.015450455907</v>
@@ -12211,10 +12211,10 @@
         <v>684.626406880617</v>
       </c>
       <c r="I87" t="n">
-        <v>0.00192778787648083</v>
+        <v>0.00171393129532599</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.173738968902592</v>
+        <v>-0.173739017680381</v>
       </c>
       <c r="K87" t="n">
         <v>0.999264020205677</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>-1.32396143939219</v>
+        <v>-1.17708920954633</v>
       </c>
       <c r="N87" t="n">
         <v>397.640928170349</v>
@@ -12244,10 +12244,10 @@
         <v>1066.01153038529</v>
       </c>
       <c r="T87" t="n">
-        <v>0.0190966639148754</v>
+        <v>0.0169782009314099</v>
       </c>
       <c r="U87" t="n">
-        <v>-1.44238822572071</v>
+        <v>-1.44238863067597</v>
       </c>
       <c r="V87" t="n">
         <v>0.996544219694365</v>
@@ -12262,13 +12262,13 @@
         <v>271.495</v>
       </c>
       <c r="Z87" t="n">
-        <v>0.00179231316467407</v>
+        <v>0.00159348484290768</v>
       </c>
       <c r="AA87" t="n">
         <v>0.2</v>
       </c>
       <c r="AB87" t="n">
-        <v>2.18662206090237</v>
+        <v>1.94405150834737</v>
       </c>
       <c r="AC87" t="n">
         <v>245</v>
@@ -12289,7 +12289,7 @@
         <v>45</v>
       </c>
       <c r="AI87" t="n">
-        <v>-1.10958864822183</v>
+        <v>-0.986497632028184</v>
       </c>
       <c r="AJ87" t="s">
         <v>51</v>
@@ -12313,7 +12313,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="88">
@@ -13893,7 +13893,7 @@
         <v>154</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.650378997883384</v>
+        <v>-0.46387796608875</v>
       </c>
       <c r="C100" t="n">
         <v>377.704229000386</v>
@@ -13914,10 +13914,10 @@
         <v>942.371876705304</v>
       </c>
       <c r="I100" t="n">
-        <v>0.00293304583408259</v>
+        <v>0.00209197380977961</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.450974869057579</v>
+        <v>-0.450975032812696</v>
       </c>
       <c r="K100" t="n">
         <v>0.995283536541921</v>
@@ -13926,7 +13926,7 @@
         <v>4.39108545028339e-272</v>
       </c>
       <c r="M100" t="n">
-        <v>-0.822556453249418</v>
+        <v>-0.586682251069448</v>
       </c>
       <c r="N100" t="n">
         <v>381.471686958626</v>
@@ -13947,10 +13947,10 @@
         <v>514.928313871006</v>
       </c>
       <c r="T100" t="n">
-        <v>0.00557300514400737</v>
+        <v>0.00397490576777061</v>
       </c>
       <c r="U100" t="n">
-        <v>-0.67752251191901</v>
+        <v>-0.677522757936661</v>
       </c>
       <c r="V100" t="n">
         <v>0.999247587209688</v>
@@ -13965,13 +13965,13 @@
         <v>292.935</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.00143962353683034</v>
+        <v>0.00102680074290789</v>
       </c>
       <c r="AA100" t="n">
         <v>0.2</v>
       </c>
       <c r="AB100" t="n">
-        <v>1.67716142040735</v>
+        <v>1.1962228654877</v>
       </c>
       <c r="AC100" t="n">
         <v>234</v>
@@ -13992,7 +13992,7 @@
         <v>45</v>
       </c>
       <c r="AI100" t="n">
-        <v>-0.822556453249418</v>
+        <v>-0.586682251069448</v>
       </c>
       <c r="AJ100" t="s">
         <v>46</v>
@@ -14016,7 +14016,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ100" t="n">
-        <v>0.0014</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="101">
@@ -14286,7 +14286,7 @@
         <v>157</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.704124360492698</v>
+        <v>-0.452278339136953</v>
       </c>
       <c r="C103" t="n">
         <v>422.482836292325</v>
@@ -14307,10 +14307,10 @@
         <v>1330.97591412952</v>
       </c>
       <c r="I103" t="n">
-        <v>0.00249663533917639</v>
+        <v>0.0016036577528089</v>
       </c>
       <c r="J103" t="n">
-        <v>-0.354573066813001</v>
+        <v>-0.354573193991344</v>
       </c>
       <c r="K103" t="n">
         <v>0.995968020773487</v>
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.85969835972115</v>
+        <v>-0.552207774804685</v>
       </c>
       <c r="N103" t="n">
         <v>426.061751140163</v>
@@ -14340,10 +14340,10 @@
         <v>979.954616196349</v>
       </c>
       <c r="T103" t="n">
-        <v>0.00669230001941664</v>
+        <v>0.00429864892235365</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.778447457034505</v>
+        <v>-0.778447736248204</v>
       </c>
       <c r="V103" t="n">
         <v>0.998648580287234</v>
@@ -14358,13 +14358,13 @@
         <v>322.178</v>
       </c>
       <c r="Z103" t="n">
-        <v>0.00137388298091078</v>
+        <v>0.000882482623296906</v>
       </c>
       <c r="AA103" t="n">
         <v>0.2</v>
       </c>
       <c r="AB103" t="n">
-        <v>2.2050821843618</v>
+        <v>1.41638461039153</v>
       </c>
       <c r="AC103" t="n">
         <v>323</v>
@@ -14385,7 +14385,7 @@
         <v>45</v>
       </c>
       <c r="AI103" t="n">
-        <v>-0.85969835972115</v>
+        <v>-0.552207774804685</v>
       </c>
       <c r="AJ103" t="s">
         <v>46</v>
@@ -14409,7 +14409,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.0014</v>
+        <v>0.00088</v>
       </c>
     </row>
     <row r="104">
@@ -15072,7 +15072,7 @@
         <v>163</v>
       </c>
       <c r="B109" t="n">
-        <v>-0.982239070358599</v>
+        <v>-0.768747807145501</v>
       </c>
       <c r="C109" t="n">
         <v>401.389244244197</v>
@@ -15093,10 +15093,10 @@
         <v>712.298991000185</v>
       </c>
       <c r="I109" t="n">
-        <v>0.00310438399511839</v>
+        <v>0.00242964122902513</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.316051772811789</v>
+        <v>-0.31605179311624</v>
       </c>
       <c r="K109" t="n">
         <v>0.997876866703005</v>
@@ -15105,7 +15105,7 @@
         <v>1.51938575852862e-285</v>
       </c>
       <c r="M109" t="n">
-        <v>-1.11532965980964</v>
+        <v>-0.872910940011753</v>
       </c>
       <c r="N109" t="n">
         <v>403.332162832657</v>
@@ -15126,10 +15126,10 @@
         <v>895.131729426553</v>
       </c>
       <c r="T109" t="n">
-        <v>0.020885889975657</v>
+        <v>0.0163463087909019</v>
       </c>
       <c r="U109" t="n">
-        <v>-1.87262033175212</v>
+        <v>-1.87262045205686</v>
       </c>
       <c r="V109" t="n">
         <v>0.995063857878488</v>
@@ -15144,13 +15144,13 @@
         <v>306.909</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.00206978193003602</v>
+        <v>0.00161991145333251</v>
       </c>
       <c r="AA109" t="n">
         <v>0.2</v>
       </c>
       <c r="AB109" t="n">
-        <v>2.20431775548836</v>
+        <v>1.72520569779912</v>
       </c>
       <c r="AC109" t="n">
         <v>214</v>
@@ -15171,7 +15171,7 @@
         <v>45</v>
       </c>
       <c r="AI109" t="n">
-        <v>-0.982239070358599</v>
+        <v>-0.768747807145501</v>
       </c>
       <c r="AJ109" t="s">
         <v>51</v>
@@ -15195,7 +15195,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="110">
@@ -17168,7 +17168,7 @@
         <v>179</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.653223547399669</v>
+        <v>-0.87008034326918</v>
       </c>
       <c r="C125" t="n">
         <v>401.218002434236</v>
@@ -17189,10 +17189,10 @@
         <v>921.909957959002</v>
       </c>
       <c r="I125" t="n">
-        <v>0.00368063525072683</v>
+        <v>0.00490253087728747</v>
       </c>
       <c r="J125" t="n">
-        <v>-0.563457221555864</v>
+        <v>-0.563457261758958</v>
       </c>
       <c r="K125" t="n">
         <v>0.99265670826605</v>
@@ -17201,7 +17201,7 @@
         <v>8.85030255656855e-250</v>
       </c>
       <c r="M125" t="n">
-        <v>-0.713215954172184</v>
+        <v>-0.94998899641857</v>
       </c>
       <c r="N125" t="n">
         <v>402.142376231114</v>
@@ -17222,10 +17222,10 @@
         <v>1025.78798581855</v>
       </c>
       <c r="T125" t="n">
-        <v>0.0196206330670031</v>
+        <v>0.026134281962309</v>
       </c>
       <c r="U125" t="n">
-        <v>-2.75100871653613</v>
+        <v>-2.75100891282262</v>
       </c>
       <c r="V125" t="n">
         <v>0.988659612228044</v>
@@ -17240,13 +17240,13 @@
         <v>330.913</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.00189031779706396</v>
+        <v>0.00251786446508938</v>
       </c>
       <c r="AA125" t="n">
         <v>0.2</v>
       </c>
       <c r="AB125" t="n">
-        <v>2.20222023357952</v>
+        <v>2.93331210182912</v>
       </c>
       <c r="AC125" t="n">
         <v>234</v>
@@ -17267,7 +17267,7 @@
         <v>45</v>
       </c>
       <c r="AI125" t="n">
-        <v>-0.653223547399669</v>
+        <v>-0.87008034326918</v>
       </c>
       <c r="AJ125" t="s">
         <v>51</v>
@@ -17291,7 +17291,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ125" t="n">
-        <v>0.0019</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="126">
@@ -17430,7 +17430,7 @@
         <v>181</v>
       </c>
       <c r="B127" t="n">
-        <v>0.20252719942948</v>
+        <v>0.293943685674136</v>
       </c>
       <c r="C127" t="n">
         <v>413.416444237268</v>
@@ -17451,10 +17451,10 @@
         <v>240.318544128265</v>
       </c>
       <c r="I127" t="n">
-        <v>0.00182446032903338</v>
+        <v>0.00264798292151827</v>
       </c>
       <c r="J127" t="n">
-        <v>0.90084706359091</v>
+        <v>0.900847016136896</v>
       </c>
       <c r="K127" t="n">
         <v>0.988448095254042</v>
@@ -17463,7 +17463,7 @@
         <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000122835618910701</v>
       </c>
       <c r="M127" t="n">
-        <v>0.203833323075334</v>
+        <v>0.295839365856798</v>
       </c>
       <c r="N127" t="n">
         <v>413.397126363327</v>
@@ -17484,10 +17484,10 @@
         <v>244.457762014646</v>
       </c>
       <c r="T127" t="n">
-        <v>0.00738308371277164</v>
+        <v>0.0107156506877412</v>
       </c>
       <c r="U127" t="n">
-        <v>3.62211811169019</v>
+        <v>3.62211792088823</v>
       </c>
       <c r="V127" t="n">
         <v>0.988287450946061</v>
@@ -17502,13 +17502,13 @@
         <v>431.721</v>
       </c>
       <c r="Z127" t="n">
-        <v>0.00232021489893562</v>
+        <v>0.00336751073865837</v>
       </c>
       <c r="AA127" t="n">
         <v>0.2</v>
       </c>
       <c r="AB127" t="n">
-        <v>1.67055472723365</v>
+        <v>2.42460773183403</v>
       </c>
       <c r="AC127" t="n">
         <v>145</v>
@@ -17529,7 +17529,7 @@
         <v>45</v>
       </c>
       <c r="AI127" t="n">
-        <v>0.203833323075334</v>
+        <v>0.295839365856798</v>
       </c>
       <c r="AJ127" t="s">
         <v>46</v>
@@ -17553,7 +17553,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>0.0023</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="128">
@@ -18085,7 +18085,7 @@
         <v>186</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.0265008321895884</v>
+        <v>-0.0528255791154587</v>
       </c>
       <c r="C132" t="n">
         <v>403.409933447361</v>
@@ -18106,10 +18106,10 @@
         <v>394.179485501194</v>
       </c>
       <c r="I132" t="n">
-        <v>0.00146331124109526</v>
+        <v>0.00291689930914309</v>
       </c>
       <c r="J132" t="n">
-        <v>-5.52175580988041</v>
+        <v>-5.52175547904121</v>
       </c>
       <c r="K132" t="n">
         <v>0.631258971414158</v>
@@ -18118,7 +18118,7 @@
         <v>0.000000000000000000000000000000000000000000303309059349076</v>
       </c>
       <c r="M132" t="n">
-        <v>-0.0265787281801057</v>
+        <v>-0.0529808535151609</v>
       </c>
       <c r="N132" t="n">
         <v>403.410586177738</v>
@@ -18139,10 +18139,10 @@
         <v>396.53444247892</v>
       </c>
       <c r="T132" t="n">
-        <v>0.0014793239436292</v>
+        <v>0.00294881831560367</v>
       </c>
       <c r="U132" t="n">
-        <v>-5.56581915283848</v>
+        <v>-5.56581881935866</v>
       </c>
       <c r="V132" t="n">
         <v>0.630742645094149</v>
@@ -18157,13 +18157,13 @@
         <v>399.032</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.00174765960802308</v>
+        <v>0.00348370685984668</v>
       </c>
       <c r="AA132" t="n">
         <v>0.2</v>
       </c>
       <c r="AB132" t="n">
-        <v>1.66901492566205</v>
+        <v>3.32694005115358</v>
       </c>
       <c r="AC132" t="n">
         <v>192</v>
@@ -18184,7 +18184,7 @@
         <v>45</v>
       </c>
       <c r="AI132" t="n">
-        <v>-0.0265787281801057</v>
+        <v>-0.0529808535151609</v>
       </c>
       <c r="AJ132" t="s">
         <v>46</v>
@@ -18208,7 +18208,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ132" t="n">
-        <v>0.0017</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="133">
